--- a/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/multisource/MultiSourceFieldTest1.xlsx
+++ b/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/multisource/MultiSourceFieldTest1.xlsx
@@ -50,9 +50,6 @@
     <t>Field B</t>
   </si>
   <si>
-    <t>org.openuri.easypo</t>
-  </si>
-  <si>
     <t>org.openl.rules.mapping.to</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>multiSourceFieldConverter1</t>
+  </si>
+  <si>
+    <t>org.openl.rules.mapping.to.containers</t>
   </si>
 </sst>
 </file>
@@ -258,20 +258,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,7 +570,7 @@
   <dimension ref="C7:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C7" sqref="C7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,13 +584,13 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:9">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -598,33 +598,33 @@
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="14"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="14"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="12"/>
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:9">
-      <c r="C11" s="14"/>
-      <c r="D11" s="1" t="s">
+    <row r="15" spans="3:9">
+      <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="3:9">
-      <c r="C15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="2" t="s">
@@ -640,13 +640,13 @@
         <v>3</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="60" customHeight="1">
@@ -663,95 +663,95 @@
         <v>10</v>
       </c>
       <c r="G17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="12" t="s">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="16"/>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="16"/>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="16"/>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="13"/>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" s="13"/>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21" s="13"/>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="16"/>
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22" s="13"/>
-      <c r="D22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -783,12 +783,12 @@
   <sheetData>
     <row r="5" spans="3:3">
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:3" ht="105">
       <c r="C6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
